--- a/results/teilnehmer.xlsx
+++ b/results/teilnehmer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
   <si>
     <t>Unique Code</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Java</t>
+  </si>
+  <si>
+    <t>Skills</t>
   </si>
   <si>
     <t>C++</t>
@@ -518,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,22 +567,25 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -599,31 +605,34 @@
       <c r="K2">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
+      <c r="L2">
+        <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -635,39 +644,42 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>4</v>
       </c>
       <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -682,36 +694,39 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -734,28 +749,31 @@
       <c r="L5">
         <v>4</v>
       </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -767,39 +785,42 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -814,33 +835,36 @@
         <v>2</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="M7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -852,39 +876,42 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -896,36 +923,39 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -937,36 +967,39 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
-      <c r="M10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -978,39 +1011,42 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1022,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -1031,30 +1067,33 @@
         <v>3</v>
       </c>
       <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -1066,39 +1105,42 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <v>5</v>
       </c>
-      <c r="L13" t="s">
-        <v>40</v>
+      <c r="L13">
+        <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -1110,39 +1152,42 @@
         <v>4</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1154,36 +1199,39 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="M15" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1195,39 +1243,42 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1239,39 +1290,42 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="L17" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1283,39 +1337,42 @@
         <v>4</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
         <v>5</v>
       </c>
-      <c r="M18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18">
+      <c r="N18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -1327,39 +1384,42 @@
         <v>5</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
         <v>5</v>
       </c>
-      <c r="M19" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="N19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1377,30 +1437,33 @@
         <v>3</v>
       </c>
       <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="M20" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -1415,36 +1478,39 @@
         <v>2</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1464,13 +1530,16 @@
       <c r="K22">
         <v>2</v>
       </c>
-      <c r="L22" t="s">
-        <v>42</v>
+      <c r="L22">
+        <v>2</v>
       </c>
       <c r="M22" t="s">
-        <v>45</v>
-      </c>
-      <c r="N22">
+        <v>43</v>
+      </c>
+      <c r="N22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22">
         <v>2</v>
       </c>
     </row>
